--- a/assets/format/template_import_master.xlsx
+++ b/assets/format/template_import_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\sgss-web\assets\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EC190A-8AD9-4CDF-A50F-26D02BF11F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6D9915-316E-4283-B2EB-BB8E837C9BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="7" xr2:uid="{2F15F523-A8F8-4B01-A65B-6B4F5ED804C2}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="Factory" sheetId="3" r:id="rId3"/>
     <sheet name="Item Group" sheetId="7" r:id="rId4"/>
     <sheet name="User" sheetId="8" r:id="rId5"/>
-    <sheet name="Master Material" sheetId="4" r:id="rId6"/>
+    <sheet name="Master Item" sheetId="4" r:id="rId6"/>
     <sheet name="Master Vendor" sheetId="5" r:id="rId7"/>
-    <sheet name="Master Vendor x Material" sheetId="6" r:id="rId8"/>
+    <sheet name="Master Vendor x Item" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4296,7 +4296,7 @@
   <dimension ref="A1:Q181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="10" t="e">
-        <f>VLOOKUP(C2,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C2,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E2" s="3"/>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="10" t="e">
-        <f>VLOOKUP(C3,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C3,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E3" s="3"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="10" t="e">
-        <f>VLOOKUP(C4,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C4,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E4" s="3"/>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10" t="e">
-        <f>VLOOKUP(C5,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C5,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E5" s="3"/>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="10" t="e">
-        <f>VLOOKUP(C6,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C6,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E6" s="3"/>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="10" t="e">
-        <f>VLOOKUP(C7,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C7,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E7" s="3"/>
@@ -4526,7 +4526,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="10" t="e">
-        <f>VLOOKUP(C8,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C8,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E8" s="3"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="10" t="e">
-        <f>VLOOKUP(C9,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C9,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E9" s="3"/>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="10" t="e">
-        <f>VLOOKUP(C10,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C10,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E10" s="3"/>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="10" t="e">
-        <f>VLOOKUP(C11,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C11,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E11" s="3"/>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="10" t="e">
-        <f>VLOOKUP(C12,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C12,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E12" s="3"/>
@@ -4651,7 +4651,7 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="10" t="e">
-        <f>VLOOKUP(C13,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C13,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E13" s="3"/>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="10" t="e">
-        <f>VLOOKUP(C14,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C14,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E14" s="3"/>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="10" t="e">
-        <f>VLOOKUP(C15,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C15,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E15" s="3"/>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="10" t="e">
-        <f>VLOOKUP(C16,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C16,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E16" s="3"/>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="10" t="e">
-        <f>VLOOKUP(C17,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C17,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E17" s="3"/>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="10" t="e">
-        <f>VLOOKUP(C18,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C18,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E18" s="3"/>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="10" t="e">
-        <f>VLOOKUP(C19,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C19,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E19" s="3"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="10" t="e">
-        <f>VLOOKUP(C20,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C20,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E20" s="3"/>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="10" t="e">
-        <f>VLOOKUP(C21,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C21,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E21" s="3"/>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="10" t="e">
-        <f>VLOOKUP(C22,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C22,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E22" s="3"/>
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="10" t="e">
-        <f>VLOOKUP(C23,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C23,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E23" s="3"/>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="10" t="e">
-        <f>VLOOKUP(C24,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C24,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E24" s="3"/>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="10" t="e">
-        <f>VLOOKUP(C25,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C25,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E25" s="3"/>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="10" t="e">
-        <f>VLOOKUP(C26,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C26,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E26" s="3"/>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="10" t="e">
-        <f>VLOOKUP(C27,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C27,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E27" s="3"/>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="10" t="e">
-        <f>VLOOKUP(C28,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C28,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E28" s="3"/>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="10" t="e">
-        <f>VLOOKUP(C29,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C29,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E29" s="3"/>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="10" t="e">
-        <f>VLOOKUP(C30,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C30,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E30" s="3"/>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="10" t="e">
-        <f>VLOOKUP(C31,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C31,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E31" s="3"/>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="10" t="e">
-        <f>VLOOKUP(C32,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C32,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E32" s="3"/>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="10" t="e">
-        <f>VLOOKUP(C33,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C33,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E33" s="3"/>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="10" t="e">
-        <f>VLOOKUP(C34,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C34,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E34" s="3"/>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="10" t="e">
-        <f>VLOOKUP(C35,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C35,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E35" s="3"/>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="10" t="e">
-        <f>VLOOKUP(C36,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C36,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E36" s="3"/>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="10" t="e">
-        <f>VLOOKUP(C37,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C37,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E37" s="3"/>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="10" t="e">
-        <f>VLOOKUP(C38,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C38,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E38" s="3"/>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="10" t="e">
-        <f>VLOOKUP(C39,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C39,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E39" s="3"/>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="10" t="e">
-        <f>VLOOKUP(C40,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C40,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="E40" s="3"/>
@@ -5349,7 +5349,7 @@
         <v>#N/A</v>
       </c>
       <c r="D41" s="10" t="e">
-        <f>VLOOKUP(C41,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C41,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
         <v>#N/A</v>
       </c>
       <c r="D42" s="10" t="e">
-        <f>VLOOKUP(C42,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C42,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
         <v>#N/A</v>
       </c>
       <c r="D43" s="10" t="e">
-        <f>VLOOKUP(C43,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C43,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
         <v>#N/A</v>
       </c>
       <c r="D44" s="10" t="e">
-        <f>VLOOKUP(C44,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C44,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5389,7 +5389,7 @@
         <v>#N/A</v>
       </c>
       <c r="D45" s="10" t="e">
-        <f>VLOOKUP(C45,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C45,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5399,7 +5399,7 @@
         <v>#N/A</v>
       </c>
       <c r="D46" s="10" t="e">
-        <f>VLOOKUP(C46,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C46,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
         <v>#N/A</v>
       </c>
       <c r="D47" s="10" t="e">
-        <f>VLOOKUP(C47,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C47,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
         <v>#N/A</v>
       </c>
       <c r="D48" s="10" t="e">
-        <f>VLOOKUP(C48,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C48,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
         <v>#N/A</v>
       </c>
       <c r="D49" s="10" t="e">
-        <f>VLOOKUP(C49,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C49,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
         <v>#N/A</v>
       </c>
       <c r="D50" s="10" t="e">
-        <f>VLOOKUP(C50,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C50,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
         <v>#N/A</v>
       </c>
       <c r="D51" s="10" t="e">
-        <f>VLOOKUP(C51,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C51,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
         <v>#N/A</v>
       </c>
       <c r="D52" s="10" t="e">
-        <f>VLOOKUP(C52,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C52,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
         <v>#N/A</v>
       </c>
       <c r="D53" s="10" t="e">
-        <f>VLOOKUP(C53,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C53,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
         <v>#N/A</v>
       </c>
       <c r="D54" s="10" t="e">
-        <f>VLOOKUP(C54,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C54,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
         <v>#N/A</v>
       </c>
       <c r="D55" s="10" t="e">
-        <f>VLOOKUP(C55,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C55,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5499,7 +5499,7 @@
         <v>#N/A</v>
       </c>
       <c r="D56" s="10" t="e">
-        <f>VLOOKUP(C56,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C56,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5509,7 +5509,7 @@
         <v>#N/A</v>
       </c>
       <c r="D57" s="10" t="e">
-        <f>VLOOKUP(C57,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C57,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
         <v>#N/A</v>
       </c>
       <c r="D58" s="10" t="e">
-        <f>VLOOKUP(C58,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C58,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
         <v>#N/A</v>
       </c>
       <c r="D59" s="10" t="e">
-        <f>VLOOKUP(C59,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C59,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="10" t="e">
-        <f>VLOOKUP(C60,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C60,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
         <v>#N/A</v>
       </c>
       <c r="D61" s="10" t="e">
-        <f>VLOOKUP(C61,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C61,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="10" t="e">
-        <f>VLOOKUP(C62,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C62,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5569,7 +5569,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="10" t="e">
-        <f>VLOOKUP(C63,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C63,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5579,7 +5579,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="10" t="e">
-        <f>VLOOKUP(C64,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C64,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="10" t="e">
-        <f>VLOOKUP(C65,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C65,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="10" t="e">
-        <f>VLOOKUP(C66,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C66,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="10" t="e">
-        <f>VLOOKUP(C67,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C67,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="10" t="e">
-        <f>VLOOKUP(C68,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C68,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5629,7 +5629,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="10" t="e">
-        <f>VLOOKUP(C69,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C69,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="10" t="e">
-        <f>VLOOKUP(C70,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C70,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="10" t="e">
-        <f>VLOOKUP(C71,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C71,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="10" t="e">
-        <f>VLOOKUP(C72,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C72,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="10" t="e">
-        <f>VLOOKUP(C73,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C73,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5679,7 +5679,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="10" t="e">
-        <f>VLOOKUP(C74,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C74,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="10" t="e">
-        <f>VLOOKUP(C75,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C75,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5699,7 +5699,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="10" t="e">
-        <f>VLOOKUP(C76,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C76,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="10" t="e">
-        <f>VLOOKUP(C77,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C77,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5719,7 +5719,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="10" t="e">
-        <f>VLOOKUP(C78,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C78,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="10" t="e">
-        <f>VLOOKUP(C79,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C79,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="10" t="e">
-        <f>VLOOKUP(C80,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C80,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="10" t="e">
-        <f>VLOOKUP(C81,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C81,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="10" t="e">
-        <f>VLOOKUP(C82,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C82,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5769,7 +5769,7 @@
         <v>#N/A</v>
       </c>
       <c r="D83" s="10" t="e">
-        <f>VLOOKUP(C83,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C83,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5779,7 +5779,7 @@
         <v>#N/A</v>
       </c>
       <c r="D84" s="10" t="e">
-        <f>VLOOKUP(C84,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C84,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
         <v>#N/A</v>
       </c>
       <c r="D85" s="10" t="e">
-        <f>VLOOKUP(C85,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C85,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
         <v>#N/A</v>
       </c>
       <c r="D86" s="10" t="e">
-        <f>VLOOKUP(C86,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C86,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5809,7 +5809,7 @@
         <v>#N/A</v>
       </c>
       <c r="D87" s="10" t="e">
-        <f>VLOOKUP(C87,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C87,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
         <v>#N/A</v>
       </c>
       <c r="D88" s="10" t="e">
-        <f>VLOOKUP(C88,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C88,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
         <v>#N/A</v>
       </c>
       <c r="D89" s="10" t="e">
-        <f>VLOOKUP(C89,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C89,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
         <v>#N/A</v>
       </c>
       <c r="D90" s="10" t="e">
-        <f>VLOOKUP(C90,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C90,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
         <v>#N/A</v>
       </c>
       <c r="D91" s="10" t="e">
-        <f>VLOOKUP(C91,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C91,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
         <v>#N/A</v>
       </c>
       <c r="D92" s="10" t="e">
-        <f>VLOOKUP(C92,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C92,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
         <v>#N/A</v>
       </c>
       <c r="D93" s="10" t="e">
-        <f>VLOOKUP(C93,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C93,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5879,7 +5879,7 @@
         <v>#N/A</v>
       </c>
       <c r="D94" s="10" t="e">
-        <f>VLOOKUP(C94,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C94,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
         <v>#N/A</v>
       </c>
       <c r="D95" s="10" t="e">
-        <f>VLOOKUP(C95,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C95,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
         <v>#N/A</v>
       </c>
       <c r="D96" s="10" t="e">
-        <f>VLOOKUP(C96,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C96,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
         <v>#N/A</v>
       </c>
       <c r="D97" s="10" t="e">
-        <f>VLOOKUP(C97,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C97,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5919,7 +5919,7 @@
         <v>#N/A</v>
       </c>
       <c r="D98" s="10" t="e">
-        <f>VLOOKUP(C98,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C98,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
         <v>#N/A</v>
       </c>
       <c r="D99" s="10" t="e">
-        <f>VLOOKUP(C99,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C99,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
         <v>#N/A</v>
       </c>
       <c r="D100" s="10" t="e">
-        <f>VLOOKUP(C100,'Master Material'!$B$3:$C$1048576,2,FALSE)</f>
+        <f>VLOOKUP(C100,'Master Item'!$B$3:$C$1048576,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -6200,7 +6200,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CD033B92-FA62-4109-92EA-8BE7EEF5246D}">
           <x14:formula1>
-            <xm:f>'Master Material'!$B$3:$B$40</xm:f>
+            <xm:f>'Master Item'!$B$3:$B$40</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C40</xm:sqref>
         </x14:dataValidation>
